--- a/features.xlsx
+++ b/features.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="二连码" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,9 @@
     <sheet name="四连码" sheetId="3" r:id="rId3"/>
     <sheet name="五连码" sheetId="4" r:id="rId4"/>
     <sheet name="六连码" sheetId="5" r:id="rId5"/>
+    <sheet name="同位码" sheetId="6" r:id="rId6"/>
+    <sheet name="h_weima" sheetId="7" r:id="rId7"/>
+    <sheet name="l_weima" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -21,14 +24,37 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -41,8 +67,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -57,22 +112,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -86,78 +166,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,20 +176,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,49 +190,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,19 +220,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,6 +245,108 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,78 +374,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -385,6 +381,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -399,6 +428,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,48 +473,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -490,148 +486,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2570,7 +2566,7 @@
   <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
@@ -3140,4 +3136,508 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>19</v>
+      </c>
+      <c r="B36">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>